--- a/tut05/output/0501EE33.xlsx
+++ b/tut05/output/0501EE33.xlsx
@@ -550,28 +550,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.857142857142857</v>
+        <v>6.86</v>
       </c>
       <c r="C6" t="n">
-        <v>6.704545454545454</v>
+        <v>6.7</v>
       </c>
       <c r="D6" t="n">
-        <v>6.521739130434782</v>
+        <v>6.52</v>
       </c>
       <c r="E6" t="n">
         <v>6</v>
       </c>
       <c r="F6" t="n">
-        <v>6.461538461538462</v>
+        <v>6.46</v>
       </c>
       <c r="G6" t="n">
         <v>5.9</v>
       </c>
       <c r="H6" t="n">
-        <v>6.953488372093023</v>
+        <v>6.95</v>
       </c>
       <c r="I6" t="n">
-        <v>7.052631578947368</v>
+        <v>7.05</v>
       </c>
     </row>
     <row r="7">
@@ -612,28 +612,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.857142857142857</v>
+        <v>6.86</v>
       </c>
       <c r="C8" t="n">
-        <v>6.78494623655914</v>
+        <v>6.78</v>
       </c>
       <c r="D8" t="n">
-        <v>6.697841726618705</v>
+        <v>6.7</v>
       </c>
       <c r="E8" t="n">
-        <v>6.524324324324325</v>
+        <v>6.52</v>
       </c>
       <c r="F8" t="n">
-        <v>6.513392857142857</v>
+        <v>6.51</v>
       </c>
       <c r="G8" t="n">
-        <v>6.420454545454546</v>
+        <v>6.42</v>
       </c>
       <c r="H8" t="n">
-        <v>6.495114006514658</v>
+        <v>6.5</v>
       </c>
       <c r="I8" t="n">
-        <v>6.556521739130435</v>
+        <v>6.56</v>
       </c>
     </row>
   </sheetData>
